--- a/file/daegu-suseong-gu.xlsx
+++ b/file/daegu-suseong-gu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03428A52-457B-49BD-AF00-347902478446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBFF27C-B686-4CC9-83E4-C89C9F058BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0CD7C20A-CB3A-45B3-BDF1-51F1F0F32E5C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0CD7C20A-CB3A-45B3-BDF1-51F1F0F32E5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="210">
   <si>
     <t>노변대백</t>
   </si>
@@ -653,6 +653,38 @@
   </si>
   <si>
     <t>아파트명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대구범어아이파크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -660,7 +692,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -695,6 +727,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -710,7 +749,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -733,13 +772,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -754,6 +804,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1069,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504F6622-08E4-4F8A-862B-D20A3BA58388}">
-  <dimension ref="A1:B209"/>
+  <dimension ref="A1:B210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="D218" sqref="D218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1112,7 +1168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>17258</v>
       </c>
@@ -1128,7 +1184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>125388</v>
       </c>
@@ -1176,7 +1232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>141179</v>
       </c>
@@ -1608,7 +1664,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>112285</v>
       </c>
@@ -1616,7 +1672,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>103257</v>
       </c>
@@ -1648,7 +1704,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>24050</v>
       </c>
@@ -1656,7 +1712,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>24052</v>
       </c>
@@ -1720,7 +1776,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>131807</v>
       </c>
@@ -2184,7 +2240,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>17240</v>
       </c>
@@ -2280,7 +2336,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>25774</v>
       </c>
@@ -2368,7 +2424,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>150282</v>
       </c>
@@ -2750,6 +2806,14 @@
       </c>
       <c r="B209" s="2" t="s">
         <v>206</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A210" s="5">
+        <v>182797</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/file/daegu-suseong-gu.xlsx
+++ b/file/daegu-suseong-gu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBFF27C-B686-4CC9-83E4-C89C9F058BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC8DD4F-E5B5-4F98-92AC-41A4E75699FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0CD7C20A-CB3A-45B3-BDF1-51F1F0F32E5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="211">
   <si>
     <t>노변대백</t>
   </si>
@@ -684,6 +684,19 @@
         <charset val="129"/>
       </rPr>
       <t>차</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐슬골드파크</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1125,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504F6622-08E4-4F8A-862B-D20A3BA58388}">
-  <dimension ref="A1:B210"/>
+  <dimension ref="A1:B211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="D218" sqref="D218"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="G210" sqref="G210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -2816,6 +2829,14 @@
         <v>209</v>
       </c>
     </row>
+    <row r="211" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A211" s="5">
+        <v>178017</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/file/daegu-suseong-gu.xlsx
+++ b/file/daegu-suseong-gu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC8DD4F-E5B5-4F98-92AC-41A4E75699FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5991F3-4DF0-4BD9-B1BB-50BF7A1854DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0CD7C20A-CB3A-45B3-BDF1-51F1F0F32E5C}"/>
   </bookViews>
@@ -1138,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504F6622-08E4-4F8A-862B-D20A3BA58388}">
-  <dimension ref="A1:B211"/>
+  <dimension ref="A1:B212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="G210" sqref="G210"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -2837,6 +2837,10 @@
         <v>210</v>
       </c>
     </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="5"/>
+      <c r="B212" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
